--- a/output/LEGACY_30566221000192.xlsx
+++ b/output/LEGACY_30566221000192.xlsx
@@ -724,10 +724,10 @@
         <v>44165</v>
       </c>
       <c r="B31">
-        <v>0.31549165</v>
+        <v>0.3171879500000001</v>
       </c>
       <c r="C31">
-        <v>0.02277697178346072</v>
+        <v>0.0240958220986538</v>
       </c>
     </row>
   </sheetData>

--- a/output/LEGACY_30566221000192.xlsx
+++ b/output/LEGACY_30566221000192.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>LEGACY CAPITAL ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43281</v>
       </c>
@@ -411,323 +405,236 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43312</v>
       </c>
       <c r="B3">
         <v>0.008055289999999937</v>
       </c>
-      <c r="C3">
-        <v>0.008055289999999937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43343</v>
       </c>
       <c r="B4">
-        <v>0.004494519999999946</v>
-      </c>
-      <c r="C4">
         <v>-0.003532316168887939</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43373</v>
       </c>
       <c r="B5">
-        <v>0.01079995</v>
-      </c>
-      <c r="C5">
         <v>0.00627721692299521</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43404</v>
       </c>
       <c r="B6">
-        <v>0.04369479999999992</v>
-      </c>
-      <c r="C6">
         <v>0.0325433830897992</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43434</v>
       </c>
       <c r="B7">
-        <v>0.05165971999999996</v>
-      </c>
-      <c r="C7">
         <v>0.007631464677221755</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43465</v>
       </c>
       <c r="B8">
-        <v>0.05999972999999992</v>
-      </c>
-      <c r="C8">
         <v>0.007930331305262772</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43496</v>
       </c>
       <c r="B9">
-        <v>0.1089784</v>
-      </c>
-      <c r="C9">
         <v>0.04620630422236061</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43524</v>
       </c>
       <c r="B10">
-        <v>0.1082935899999999</v>
-      </c>
-      <c r="C10">
         <v>-0.0006175142816128298</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43555</v>
       </c>
       <c r="B11">
-        <v>0.1057308400000001</v>
-      </c>
-      <c r="C11">
         <v>-0.002312338556428761</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43585</v>
       </c>
       <c r="B12">
-        <v>0.11743061</v>
-      </c>
-      <c r="C12">
         <v>0.01058102892382018</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43616</v>
       </c>
       <c r="B13">
-        <v>0.1208770400000001</v>
-      </c>
-      <c r="C13">
         <v>0.003084245204272751</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43646</v>
       </c>
       <c r="B14">
-        <v>0.15822077</v>
-      </c>
-      <c r="C14">
         <v>0.03331652685115216</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43677</v>
       </c>
       <c r="B15">
-        <v>0.17444719</v>
-      </c>
-      <c r="C15">
         <v>0.01400978157212629</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43708</v>
       </c>
       <c r="B16">
-        <v>0.1812173100000001</v>
-      </c>
-      <c r="C16">
         <v>0.005764516325336144</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43738</v>
       </c>
       <c r="B17">
-        <v>0.18932393</v>
-      </c>
-      <c r="C17">
         <v>0.006862937015374326</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43769</v>
       </c>
       <c r="B18">
-        <v>0.2065901999999999</v>
-      </c>
-      <c r="C18">
         <v>0.01451771848229777</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43799</v>
       </c>
       <c r="B19">
-        <v>0.17884696</v>
-      </c>
-      <c r="C19">
         <v>-0.02299309243519465</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43830</v>
       </c>
       <c r="B20">
-        <v>0.2188066099999999</v>
-      </c>
-      <c r="C20">
         <v>0.033897232936835</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43861</v>
       </c>
       <c r="B21">
-        <v>0.2140772500000001</v>
-      </c>
-      <c r="C21">
         <v>-0.003880320274928462</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43890</v>
       </c>
       <c r="B22">
-        <v>0.20869497</v>
-      </c>
-      <c r="C22">
         <v>-0.004433226963111325</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43921</v>
       </c>
       <c r="B23">
-        <v>0.1607453299999999</v>
-      </c>
-      <c r="C23">
         <v>-0.0396705878572492</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43951</v>
       </c>
       <c r="B24">
-        <v>0.19885419</v>
-      </c>
-      <c r="C24">
         <v>0.03283137051259999</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43982</v>
       </c>
       <c r="B25">
-        <v>0.2398935499999999</v>
-      </c>
-      <c r="C25">
         <v>0.03423215295264548</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44012</v>
       </c>
       <c r="B26">
-        <v>0.2511432199999999</v>
-      </c>
-      <c r="C26">
         <v>0.0090730934119303</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44043</v>
       </c>
       <c r="B27">
-        <v>0.30331172</v>
-      </c>
-      <c r="C27">
         <v>0.04169666523070004</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44074</v>
       </c>
       <c r="B28">
-        <v>0.2971469200000001</v>
-      </c>
-      <c r="C28">
         <v>-0.004730104015330916</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
       <c r="B29">
-        <v>0.2772119399999999</v>
-      </c>
-      <c r="C29">
         <v>-0.01536832851594028</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44135</v>
       </c>
       <c r="B30">
-        <v>0.2861959999999999</v>
-      </c>
-      <c r="C30">
         <v>0.00703411839385093</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44165</v>
       </c>
       <c r="B31">
-        <v>0.3171879500000001</v>
-      </c>
-      <c r="C31">
-        <v>0.0240958220986538</v>
+        <v>0.02200221428149374</v>
       </c>
     </row>
   </sheetData>
